--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +77,10 @@
   </si>
   <si>
     <t>91-&gt;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>42274</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>-40</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>-30</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,59 @@
   </si>
   <si>
     <t>Out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种碗筷、厨具、调味料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老干妈、猪肉、醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-&gt; -397.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-397.5-&gt;2.5</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +161,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,13 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,6 +620,84 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>266.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <f>SUM(D14:D16)</f>
+        <v>418.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,30 @@
       </rPr>
       <t>-397.5-&gt;2.5</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防蝇罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5-&gt;-3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.5-&gt;196.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +224,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,6 +723,48 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,26 @@
   </si>
   <si>
     <t>-3.5-&gt;196.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196.5-&gt;155.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,6 +785,43 @@
         <v>33</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42288</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5310" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>196.5-&gt;155.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂住证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155.5-&gt;115.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,7 +817,7 @@
         <v>42288</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>35</v>
       </c>
@@ -801,7 +825,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -809,7 +833,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -817,9 +841,54 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6450" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>155.5-&gt;115.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115.5-&gt;102.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,6 +903,27 @@
         <v>44</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>-13.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7590" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>115.5-&gt;102.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.4-&gt;62.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,15 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -922,6 +935,27 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8730" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,22 @@
   </si>
   <si>
     <t>102.4-&gt;62.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zhu rou </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qing jiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.4-&gt;44.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,6 +974,35 @@
         <v>50</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SmartTeamIN&OUT.xlsx
+++ b/SmartTeamIN&OUT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9870" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>In&amp;Out</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,15 +233,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">zhu rou </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qing jiao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>62.4-&gt;44.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.6-&gt;4.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,7 +996,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>-14</v>
@@ -992,7 +1004,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55">
         <v>-3.8</v>
@@ -1000,7 +1012,28 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
